--- a/subjob/DOS.xlsx
+++ b/subjob/DOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="bs1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t xml:space="preserve">baseset  </t>
     <phoneticPr fontId="1"/>
@@ -48,12 +48,265 @@
     <t>frequency</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>*sf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sf=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HF/6-31G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ONIOM B3lyp-HF/6-31G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HF/6-31G-HF/STO3G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HF/6-31G-AM1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>似乎不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>重新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>算</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>别忘了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是想要考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虑7base的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>8base开始才有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大的能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隙</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +319,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,9 +350,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -372,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -383,18 +645,25 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -407,245 +676,572 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>1.8481363277762101E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>128.904</v>
+      </c>
+      <c r="G3">
+        <f>F3*0.96</f>
+        <v>123.74784</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>9.0096645979090598E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>230.947</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="0">F4*0.96</f>
+        <v>221.70911999999998</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
         <v>2.09070422079684E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>307.20499999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>294.91679999999997</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
         <v>3.6962726555524297E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>336.53100000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>323.06975999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
         <v>5.8793836927380899E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>363.94499999999999</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>349.38720000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
         <v>8.1895541024583601E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>425.80399999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>408.77183999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
         <v>1.04650719560328E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>498.98200000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>479.02271999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
         <v>1.4195997167731E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>544.23400000000004</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>522.46464000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11">
         <v>1.67487354704719E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>640.16300000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>614.55647999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12">
         <v>2.0918593060016998E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>692.69899999999996</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>664.99103999999988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13">
         <v>2.4926738720881698E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>757.85</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>727.53599999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>11</v>
       </c>
       <c r="C14">
         <v>2.9027291198135199E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>836.50199999999995</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>803.04191999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15">
         <v>3.3197148787680302E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>837.37300000000005</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>803.87808000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>13</v>
       </c>
       <c r="C16">
         <v>3.83719305054537E-3</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>961.553</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>923.09087999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>14</v>
       </c>
       <c r="C17">
         <v>4.3823932672393496E-3</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>973.13800000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>934.21248000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18">
         <v>4.8652188828708903E-3</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1023.8150000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>982.86239999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>16</v>
       </c>
       <c r="C19">
         <v>5.4785691266516197E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1110.2270000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1065.81792</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>17</v>
       </c>
       <c r="C20">
         <v>6.1034702224809596E-3</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>1110.7360000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1066.30656</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>18</v>
       </c>
       <c r="C21">
         <v>6.7272162331054302E-3</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1153.787</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1107.63552</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22">
         <v>7.5369309617123901E-3</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1225.5409999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1176.51936</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>20</v>
       </c>
       <c r="C23">
         <v>8.1029227120938494E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>1331.7550000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1278.4848</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>21</v>
       </c>
       <c r="C24">
         <v>8.9530654228709098E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>1335.558</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1282.1356799999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>22</v>
       </c>
       <c r="C25">
         <v>9.7188869136931796E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1441.356</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1383.7017599999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>23</v>
       </c>
       <c r="C26">
         <v>1.0746912746018701E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1524.3989999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1463.4230399999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>24</v>
       </c>
       <c r="C27">
         <v>1.1540456281757599E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>1628.1379999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1563.0124799999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>25</v>
       </c>
       <c r="C28">
         <v>1.26678194417011E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>1630.989</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1565.74944</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>26</v>
       </c>
       <c r="C29">
         <v>1.35757164127211E-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>3232.8110000000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3103.49856</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>27</v>
       </c>
       <c r="C30">
         <v>1.48151228375361E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>3234.3820000000001</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3105.0067199999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>28</v>
       </c>
       <c r="C31">
         <v>1.6113438607798899E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>3244.1770000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3114.4099200000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>29</v>
       </c>
       <c r="C32">
         <v>1.74036687816276E-2</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>3245.0650000000001</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3115.2624000000001</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
@@ -1896,12 +2492,413 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>150.256</v>
+      </c>
+      <c r="G3">
+        <f>F3*0.903</f>
+        <v>135.68116800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>238.93799999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="0">F4*0.903</f>
+        <v>215.76101399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>351.64499999999998</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>317.53543500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>356.97399999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>322.34752200000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>376.983</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>340.41564900000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>486.47</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>439.28241000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>561.64700000000005</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>507.16724100000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>587.66300000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>530.65968900000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>712.79499999999996</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>643.65388499999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>806.93499999999995</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>728.66230499999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>834.08699999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>753.18056100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>1004.088</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>906.691464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>1015.693</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>917.17077900000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>1132.4290000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1022.5833870000001</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1186.096</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1071.044688</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1187.9169999999999</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1072.6890510000001</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1199.336</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1083.0004080000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>1207.1969999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1090.0988909999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1241.4649999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1121.042895</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1333.2339999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1203.910302</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>1352.7850000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1221.5648550000001</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>1481.575</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1337.8622250000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1563.13</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1411.5063900000002</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1674.556</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1512.1240680000001</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>1789.7180000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1616.115354</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>1796.3979999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1622.1473940000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>3443.0830000000001</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3109.1039490000003</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>3444.41</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3110.3022299999998</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>3457.0929999999998</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3121.7549789999998</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>3458.9180000000001</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3123.4029540000001</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1909,12 +2906,415 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>0.96</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>143.637</v>
+      </c>
+      <c r="G3">
+        <f>F3*0.96</f>
+        <v>137.89151999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>232.601</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="0">F4*0.96</f>
+        <v>223.29695999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>318.32499999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>305.59199999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>339.05599999999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>325.49375999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>358.29899999999998</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>343.96703999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>431.92899999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>414.65183999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>506.30399999999997</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>486.05183999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>551.60699999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>529.54271999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>642.81899999999996</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>617.10623999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>707.29399999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>679.00223999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>760.77700000000004</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>730.34591999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>847.11900000000003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>813.23424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>850.62</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>816.59519999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>976.86699999999996</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>937.7923199999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>983.42499999999995</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>944.08799999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1024.415</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>983.43839999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1114.68</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1070.0928000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>1120.069</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1075.2662399999999</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1146.521</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1100.6601599999999</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1216.346</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1167.6921600000001</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>1335.366</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1281.95136</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>1349.242</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1295.2723199999998</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1443.93</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1386.1728000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1529.768</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1468.57728</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>1640.164</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1574.55744</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>1642.1510000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1576.46496</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>3260.19</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3129.7824000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>3264.692</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3134.1043199999999</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>3271.6889999999999</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3140.8214399999997</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>3274.4009999999998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3143.4249599999998</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1922,12 +3322,412 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>134.76</v>
+      </c>
+      <c r="G3">
+        <f>F3*0.903</f>
+        <v>121.68827999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>233.42500000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="0">F4*0.903</f>
+        <v>210.78277500000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>341.24900000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>308.14784700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>354.00900000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>319.67012700000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>375.601</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>339.16770300000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>483.44900000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>436.55444700000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>558.154</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>504.01306199999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>582.14700000000005</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>525.67874100000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>711.803</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>642.75810899999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>804.92200000000003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>726.84456599999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>828.154</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>747.82306200000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>991.79300000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>895.58907900000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>1002.241</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>905.02362300000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>1130.2059999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1020.576018</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1171.8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1058.1353999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1176.269</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1062.1709069999999</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1196.1759999999999</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1080.1469279999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>1204.184</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1087.378152</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1236.5609999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1116.614583</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1328.4259999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1199.5686779999999</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>1344.287</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1213.891161</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>1474.623</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1331.5845690000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1559.433</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1408.167999</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1667.6410000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1505.8798230000002</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>1786.0530000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1612.8058590000001</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>1790.3019999999999</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1616.6427059999999</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>3417.8029999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3086.2761089999999</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>3421.433</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3089.5539990000002</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>3433.7539999999999</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3100.679862</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>3438.8809999999999</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3105.3095429999998</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1935,14 +3735,412 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>126.39400000000001</v>
+      </c>
+      <c r="G3">
+        <f>F3*0.903</f>
+        <v>114.13378200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>228.97200000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G32" si="0">F4*0.903</f>
+        <v>206.76171600000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>338.88900000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>306.01676700000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>347.767</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>314.03360100000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>374.14499999999998</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>337.852935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>482.24299999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>435.46542900000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>549.64300000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>496.32762900000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>579.51099999999997</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>523.29843299999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>710.399</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>641.49029700000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>799.20600000000002</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>721.68301800000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>826.59400000000005</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>746.41438200000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>989.06700000000001</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>893.12750100000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>1000.001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>903.00090299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>1129.3499999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>1019.80305</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1169.8340000000001</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1056.3601020000001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1172.7270000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1058.972481</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1188.0440000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1072.8037320000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>1198.6410000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>1082.3728230000002</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>1229.7339999999999</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1110.4498019999999</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>1325.289</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1196.7359670000001</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>27</v>
+      </c>
+      <c r="F23">
+        <v>1336.92</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1207.2387600000002</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>1473.2470000000001</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>1330.3420410000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1555.1189999999999</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1404.272457</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1665.5119999999999</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1503.9573359999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>1780.4069999999999</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1607.707521</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>1786.4760000000001</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1613.1878280000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>33</v>
+      </c>
+      <c r="F29">
+        <v>3381.0039999999999</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>3053.0466120000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>3388.8789999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>3060.157737</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>35</v>
+      </c>
+      <c r="F31">
+        <v>3397.9780000000001</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3068.3741340000001</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>3415.2979999999998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>3084.0140939999997</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/subjob/DOS.xlsx
+++ b/subjob/DOS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280E2D5D-1ED6-964E-B8FB-ED9E2241C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14ACA11-3F4C-BE4C-93DD-14F3A68FD5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="25600" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bs1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t xml:space="preserve">baseset  </t>
     <phoneticPr fontId="1"/>
@@ -278,6 +278,26 @@
     <t>m/c</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>limited</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B3LYP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cv(298K)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oniom B3lyp/HF</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +446,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>243539</xdr:colOff>
+      <xdr:colOff>243538</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -476,7 +496,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:colOff>279401</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>18240</xdr:rowOff>
     </xdr:to>
@@ -526,7 +546,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>457198</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>56340</xdr:rowOff>
     </xdr:to>
@@ -575,8 +595,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>188283</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>132540</xdr:rowOff>
     </xdr:to>
@@ -670,15 +690,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>382412</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>94440</xdr:rowOff>
+      <xdr:rowOff>80329</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -717,8 +737,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16713200" y="22669500"/>
-          <a:ext cx="7772400" cy="4666440"/>
+          <a:off x="17342556" y="23495000"/>
+          <a:ext cx="7818967" cy="4835773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,8 +862,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>573615</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>189883</xdr:rowOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>3617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,6 +1062,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>135466</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>334433</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844A1D22-329E-1CB5-1535-C32F3EB04207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18660533" y="6451599"/>
+          <a:ext cx="2908300" cy="9668933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1139,6 +1203,56 @@
         <a:xfrm>
           <a:off x="11506200" y="6680200"/>
           <a:ext cx="3780651" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>30940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD77B7E9-BABA-6FF9-8EC9-52B074B043A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10680700" y="17843500"/>
+          <a:ext cx="7772400" cy="4666440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1415,19 +1529,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T117" sqref="T117"/>
+    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="15" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4879,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="12:13">
+    <row r="129" spans="2:13">
       <c r="L129">
         <v>126</v>
       </c>
@@ -4887,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="12:13">
+    <row r="130" spans="2:13">
       <c r="L130">
         <v>127</v>
       </c>
@@ -4895,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="12:13">
+    <row r="131" spans="2:13">
       <c r="L131">
         <v>128</v>
       </c>
@@ -4903,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="12:13">
+    <row r="132" spans="2:13">
       <c r="L132">
         <v>129</v>
       </c>
@@ -4911,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="12:13">
+    <row r="133" spans="2:13">
       <c r="L133">
         <v>130</v>
       </c>
@@ -4919,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="12:13">
+    <row r="134" spans="2:13">
       <c r="L134">
         <v>131</v>
       </c>
@@ -4927,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="12:13">
+    <row r="135" spans="2:13">
       <c r="L135">
         <v>132</v>
       </c>
@@ -4935,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="12:13">
+    <row r="136" spans="2:13">
       <c r="L136">
         <v>133</v>
       </c>
@@ -4943,7 +5061,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="12:13">
+    <row r="137" spans="2:13">
+      <c r="B137" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>30</v>
+      </c>
       <c r="L137">
         <v>134</v>
       </c>
@@ -4951,7 +5078,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="12:13">
+    <row r="138" spans="2:13">
+      <c r="B138" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138">
+        <v>131.43180085</v>
+      </c>
+      <c r="D138">
+        <v>131.43209891999999</v>
+      </c>
       <c r="L138">
         <v>135</v>
       </c>
@@ -4959,7 +5095,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="12:13">
+    <row r="139" spans="2:13">
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>126.33682858</v>
+      </c>
+      <c r="D139">
+        <v>126.33292532</v>
+      </c>
       <c r="L139">
         <v>136</v>
       </c>
@@ -4967,7 +5112,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="12:13">
+    <row r="140" spans="2:13">
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140">
+        <v>129.36092237</v>
+      </c>
       <c r="L140">
         <v>137</v>
       </c>
@@ -4975,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="12:13">
+    <row r="141" spans="2:13">
       <c r="L141">
         <v>138</v>
       </c>
@@ -4983,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="12:13">
+    <row r="142" spans="2:13">
       <c r="L142">
         <v>139</v>
       </c>
@@ -4991,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="12:13">
+    <row r="143" spans="2:13">
       <c r="L143">
         <v>140</v>
       </c>
@@ -4999,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="12:13">
+    <row r="144" spans="2:13">
       <c r="L144">
         <v>141</v>
       </c>
@@ -5080,10 +5231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U152"/>
+  <dimension ref="A1:AF160"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="66" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W52" sqref="W52"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5096,9 +5247,11 @@
     <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5112,7 +5265,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:32">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -5137,8 +5290,12 @@
       <c r="N2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="AD2" s="1">
+        <f>SUM(AD3:AD146)</f>
+        <v>5.9999999999999858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="B3" s="4">
         <v>0</v>
       </c>
@@ -5169,8 +5326,18 @@
         <f>M3/C3</f>
         <v>0.19342235934042282</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>1.3781816615702599E-5</v>
+      </c>
+      <c r="AF3" s="1">
+        <f>C3-AD3</f>
+        <v>2.5718183384297399E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -5201,8 +5368,18 @@
         <f t="shared" ref="N4:N67" si="2">M4/C4</f>
         <v>0.19381009293437831</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>7.2354537232438906E-5</v>
+      </c>
+      <c r="AF4" s="1">
+        <f t="shared" ref="AF4:AF67" si="3">C4-AD4</f>
+        <v>8.2898666667561086E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -5233,8 +5410,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009275244379</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>2.0730149159452701E-4</v>
+      </c>
+      <c r="AF5" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7942012530547302E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -5265,8 +5452,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009278879893</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>3.9622722770145098E-4</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="3"/>
+        <v>2.4313369369854899E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -5297,8 +5494,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009274283106</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="AC7">
+        <v>4</v>
+      </c>
+      <c r="AD7">
+        <v>6.3626053375827199E-4</v>
+      </c>
+      <c r="AF7" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4324604334172795E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -5329,8 +5536,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009296517732</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="AC8">
+        <v>5</v>
+      </c>
+      <c r="AD8">
+        <v>9.4807413468854496E-4</v>
+      </c>
+      <c r="AF8" s="1">
+        <f t="shared" si="3"/>
+        <v>4.322679873114551E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -5361,8 +5578,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009263311225</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="AC9">
+        <v>6</v>
+      </c>
+      <c r="AD9">
+        <v>1.2403634954132299E-3</v>
+      </c>
+      <c r="AF9" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8174456058677007E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -5393,8 +5620,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009278259062</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>1.66070890219217E-3</v>
+      </c>
+      <c r="AF10" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3280433680782994E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -5425,8 +5662,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009269211844</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
+        <v>2.0471740097908302E-3</v>
+      </c>
+      <c r="AF11" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2077608320916965E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -5457,8 +5704,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009276640998</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="AC12">
+        <v>9</v>
+      </c>
+      <c r="AD12">
+        <v>2.53929971144321E-3</v>
+      </c>
+      <c r="AF12" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9461887955679005E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -5489,8 +5746,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009267946889</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="AC13">
+        <v>10</v>
+      </c>
+      <c r="AD13">
+        <v>3.0279799589416701E-3</v>
+      </c>
+      <c r="AF13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0805843720583302E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -5521,8 +5788,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009269574426</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="AC14">
+        <v>11</v>
+      </c>
+      <c r="AD14">
+        <v>3.5539859597743199E-3</v>
+      </c>
+      <c r="AF14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2616861452256802E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -5553,8 +5830,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009272228159</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="AC15">
+        <v>12</v>
+      </c>
+      <c r="AD15">
+        <v>4.1425843777366201E-3</v>
+      </c>
+      <c r="AF15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3689043592633801E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -5585,8 +5872,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009273893723</v>
       </c>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="AC16">
+        <v>13</v>
+      </c>
+      <c r="AD16">
+        <v>4.7828646080077999E-3</v>
+      </c>
+      <c r="AF16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5133585049922002E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -5617,8 +5914,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009274717095</v>
       </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="AC17">
+        <v>14</v>
+      </c>
+      <c r="AD17">
+        <v>5.4593221068952097E-3</v>
+      </c>
+      <c r="AF17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7401923741047903E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -5649,8 +5956,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009269817912</v>
       </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="AC18">
+        <v>15</v>
+      </c>
+      <c r="AD18">
+        <v>6.1512841494752802E-3</v>
+      </c>
+      <c r="AF18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9007115595247202E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -5681,8 +5998,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009275925087</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="AC19">
+        <v>16</v>
+      </c>
+      <c r="AD19">
+        <v>6.9477583013910996E-3</v>
+      </c>
+      <c r="AF19" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1712503366089E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -5713,8 +6040,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009269409522</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="AC20">
+        <v>17</v>
+      </c>
+      <c r="AD20">
+        <v>7.7562915428456497E-3</v>
+      </c>
+      <c r="AF20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.278710997154351E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -5745,8 +6082,18 @@
         <f t="shared" si="2"/>
         <v>0.1938100924101723</v>
       </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="AC21">
+        <v>18</v>
+      </c>
+      <c r="AD21">
+        <v>8.6165065966090897E-3</v>
+      </c>
+      <c r="AF21" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6774582833909103E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:32">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -5777,8 +6124,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009267524399</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="AC22">
+        <v>19</v>
+      </c>
+      <c r="AD22">
+        <v>9.5651549736566303E-3</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="3"/>
+        <v>2.825462086343369E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -5809,8 +6166,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009278153077</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="AC23">
+        <v>20</v>
+      </c>
+      <c r="AD23">
+        <v>1.05425154686535E-2</v>
+      </c>
+      <c r="AF23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0223803713465003E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32">
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -5841,8 +6208,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009253628165</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="AC24">
+        <v>21</v>
+      </c>
+      <c r="AD24">
+        <v>1.1680663824166901E-2</v>
+      </c>
+      <c r="AF24" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3069159158330991E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32">
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -5873,8 +6250,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009250197265</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="AC25">
+        <v>22</v>
+      </c>
+      <c r="AD25">
+        <v>1.2696498557216E-2</v>
+      </c>
+      <c r="AF25" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7222334427839988E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32">
       <c r="B26" s="4">
         <v>23</v>
       </c>
@@ -5905,8 +6292,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009252833734</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="AC26">
+        <v>23</v>
+      </c>
+      <c r="AD26">
+        <v>1.4036205980734099E-2</v>
+      </c>
+      <c r="AF26" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0225644092659E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32">
       <c r="B27" s="4">
         <v>24</v>
       </c>
@@ -5937,8 +6334,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009269929708</v>
       </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="AC27">
+        <v>24</v>
+      </c>
+      <c r="AD27">
+        <v>1.5322508864866399E-2</v>
+      </c>
+      <c r="AF27" s="1">
+        <f t="shared" si="3"/>
+        <v>4.3029074951336024E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32">
       <c r="B28" s="4">
         <v>25</v>
       </c>
@@ -5969,8 +6376,18 @@
         <f t="shared" si="2"/>
         <v>0.19381009276097047</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="AC28">
+        <v>25</v>
+      </c>
+      <c r="AD28">
+        <v>1.6813242028798199E-2</v>
+      </c>
+      <c r="AF28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6865039212018005E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
       <c r="B29" s="4">
         <v>26</v>
       </c>
@@ -6001,8 +6418,18 @@
         <f t="shared" si="2"/>
         <v>0.19176762809510892</v>
       </c>
-    </row>
-    <row r="30" spans="2:14">
+      <c r="AC29">
+        <v>26</v>
+      </c>
+      <c r="AD29">
+        <v>1.8371735791090599E-2</v>
+      </c>
+      <c r="AF29" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0263334189094011E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
       <c r="B30" s="4">
         <v>27</v>
       </c>
@@ -6033,8 +6460,18 @@
         <f t="shared" si="2"/>
         <v>0.18268404393338689</v>
       </c>
-    </row>
-    <row r="31" spans="2:14">
+      <c r="AC30">
+        <v>27</v>
+      </c>
+      <c r="AD30">
+        <v>2.01432734685674E-2</v>
+      </c>
+      <c r="AF30" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2194544714325997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
       <c r="B31" s="4">
         <v>28</v>
       </c>
@@ -6065,8 +6502,18 @@
         <f t="shared" si="2"/>
         <v>0.17397152218165848</v>
       </c>
-    </row>
-    <row r="32" spans="2:14">
+      <c r="AC31">
+        <v>28</v>
+      </c>
+      <c r="AD31">
+        <v>2.2191021720717199E-2</v>
+      </c>
+      <c r="AF31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3396054992827999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
       <c r="B32" s="4">
         <v>29</v>
       </c>
@@ -6097,8 +6544,18 @@
         <f t="shared" si="2"/>
         <v>0.16447485085557825</v>
       </c>
-    </row>
-    <row r="33" spans="2:14">
+      <c r="AC32">
+        <v>29</v>
+      </c>
+      <c r="AD32">
+        <v>2.4352469959946499E-2</v>
+      </c>
+      <c r="AF32" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7468920900535028E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32">
       <c r="B33" s="4">
         <v>30</v>
       </c>
@@ -6119,8 +6576,18 @@
         <f t="shared" si="2"/>
         <v>0.15281151647795499</v>
       </c>
-    </row>
-    <row r="34" spans="2:14">
+      <c r="AC33">
+        <v>30</v>
+      </c>
+      <c r="AD33">
+        <v>2.7113427221958999E-2</v>
+      </c>
+      <c r="AF33" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7466190680410013E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32">
       <c r="B34" s="4">
         <v>31</v>
       </c>
@@ -6141,8 +6608,18 @@
         <f t="shared" si="2"/>
         <v>0.135276703464531</v>
       </c>
-    </row>
-    <row r="35" spans="2:14">
+      <c r="AC34">
+        <v>31</v>
+      </c>
+      <c r="AD34">
+        <v>3.0629513186040101E-2</v>
+      </c>
+      <c r="AF34" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8775720039599029E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32">
       <c r="B35" s="4">
         <v>32</v>
       </c>
@@ -6163,8 +6640,18 @@
         <f t="shared" si="2"/>
         <v>7.0329832977275852E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="AC35">
+        <v>32</v>
+      </c>
+      <c r="AD35">
+        <v>3.6105488321346003E-2</v>
+      </c>
+      <c r="AF35" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9145534586539979E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:32">
       <c r="B36" s="4">
         <v>33</v>
       </c>
@@ -6185,8 +6672,18 @@
         <f t="shared" si="2"/>
         <v>4.2552084813874682E-5</v>
       </c>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="AC36">
+        <v>33</v>
+      </c>
+      <c r="AD36">
+        <v>4.1008943824741198E-2</v>
+      </c>
+      <c r="AF36" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3702241525880055E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32">
       <c r="B37" s="4">
         <v>34</v>
       </c>
@@ -6207,8 +6704,18 @@
         <f t="shared" si="2"/>
         <v>-6.9052128747248934E-2</v>
       </c>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="AC37">
+        <v>34</v>
+      </c>
+      <c r="AD37">
+        <v>4.3901402586961798E-2</v>
+      </c>
+      <c r="AF37" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.6619174669617954E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:32">
       <c r="B38" s="4">
         <v>35</v>
       </c>
@@ -6229,8 +6736,18 @@
         <f t="shared" si="2"/>
         <v>-6.1501353024653961E-2</v>
       </c>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="AC38">
+        <v>35</v>
+      </c>
+      <c r="AD38">
+        <v>4.4878188839599702E-2</v>
+      </c>
+      <c r="AF38" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.6775452395997046E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:32">
       <c r="B39" s="4">
         <v>36</v>
       </c>
@@ -6251,8 +6768,18 @@
         <f t="shared" si="2"/>
         <v>-3.5274281835703476E-2</v>
       </c>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="AC39">
+        <v>36</v>
+      </c>
+      <c r="AD39">
+        <v>4.5815926611826499E-2</v>
+      </c>
+      <c r="AF39" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.5405356518264982E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:32">
       <c r="B40" s="4">
         <v>37</v>
       </c>
@@ -6273,8 +6800,18 @@
         <f t="shared" si="2"/>
         <v>-1.5630348102473619E-2</v>
       </c>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="AC40">
+        <v>37</v>
+      </c>
+      <c r="AD40">
+        <v>4.7596652167047102E-2</v>
+      </c>
+      <c r="AF40" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.5273526704710001E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:32">
       <c r="B41" s="4">
         <v>38</v>
       </c>
@@ -6295,8 +6832,18 @@
         <f t="shared" si="2"/>
         <v>-2.054412013897584E-2</v>
       </c>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="AC41">
+        <v>38</v>
+      </c>
+      <c r="AD41">
+        <v>4.9337180757138499E-2</v>
+      </c>
+      <c r="AF41" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.1511786713849991E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32">
       <c r="B42" s="4">
         <v>39</v>
       </c>
@@ -6317,8 +6864,18 @@
         <f t="shared" si="2"/>
         <v>-3.5982591435240366E-2</v>
       </c>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="AC42">
+        <v>39</v>
+      </c>
+      <c r="AD42">
+        <v>5.1442353245187103E-2</v>
+      </c>
+      <c r="AF42" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.8417773951871011E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32">
       <c r="B43" s="4">
         <v>40</v>
       </c>
@@ -6339,8 +6896,18 @@
         <f t="shared" si="2"/>
         <v>-5.0991562972926598E-2</v>
       </c>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="AC43">
+        <v>40</v>
+      </c>
+      <c r="AD43">
+        <v>5.4136124151197999E-2</v>
+      </c>
+      <c r="AF43" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.589237681198002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32">
       <c r="B44" s="4">
         <v>41</v>
       </c>
@@ -6361,8 +6928,18 @@
         <f t="shared" si="2"/>
         <v>-7.1113923791043865E-2</v>
       </c>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="AC44">
+        <v>41</v>
+      </c>
+      <c r="AD44">
+        <v>5.7417344990453201E-2</v>
+      </c>
+      <c r="AF44" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.8027681304532018E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32">
       <c r="B45" s="4">
         <v>42</v>
       </c>
@@ -6383,8 +6960,18 @@
         <f t="shared" si="2"/>
         <v>-7.685510584865124E-2</v>
       </c>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="AC45">
+        <v>42</v>
+      </c>
+      <c r="AD45">
+        <v>6.1077565786640198E-2</v>
+      </c>
+      <c r="AF45" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.2407792466401945E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32">
       <c r="B46" s="4">
         <v>43</v>
       </c>
@@ -6405,8 +6992,18 @@
         <f t="shared" si="2"/>
         <v>-8.9121383422938724E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="AC46">
+        <v>43</v>
+      </c>
+      <c r="AD46">
+        <v>6.5912112206956905E-2</v>
+      </c>
+      <c r="AF46" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.1530651769569058E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32">
       <c r="B47" s="4">
         <v>44</v>
       </c>
@@ -6427,8 +7024,18 @@
         <f t="shared" si="2"/>
         <v>-9.9172318694576919E-2</v>
       </c>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="AC47">
+        <v>44</v>
+      </c>
+      <c r="AD47">
+        <v>7.3496131042106297E-2</v>
+      </c>
+      <c r="AF47" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.4987280021062965E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32">
       <c r="B48" s="4">
         <v>45</v>
       </c>
@@ -6449,8 +7056,18 @@
         <f t="shared" si="2"/>
         <v>-7.0949183407084615E-2</v>
       </c>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="AC48">
+        <v>45</v>
+      </c>
+      <c r="AD48">
+        <v>8.4386637380306301E-2</v>
+      </c>
+      <c r="AF48" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.3909844703062954E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32">
       <c r="B49" s="4">
         <v>46</v>
       </c>
@@ -6471,8 +7088,18 @@
         <f t="shared" si="2"/>
         <v>-3.6611464762970822E-2</v>
       </c>
-    </row>
-    <row r="50" spans="2:14">
+      <c r="AC49">
+        <v>46</v>
+      </c>
+      <c r="AD49">
+        <v>9.5234649783941305E-2</v>
+      </c>
+      <c r="AF49" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.5830379739412999E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32">
       <c r="B50" s="4">
         <v>47</v>
       </c>
@@ -6493,8 +7120,18 @@
         <f t="shared" si="2"/>
         <v>-2.3948397677206719E-3</v>
       </c>
-    </row>
-    <row r="51" spans="2:14">
+      <c r="AC50">
+        <v>47</v>
+      </c>
+      <c r="AD50">
+        <v>0.11131745553210699</v>
+      </c>
+      <c r="AF50" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.6828823210698654E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32">
       <c r="B51" s="4">
         <v>48</v>
       </c>
@@ -6515,8 +7152,18 @@
         <f t="shared" si="2"/>
         <v>-6.8960462901540513E-3</v>
       </c>
-    </row>
-    <row r="52" spans="2:14">
+      <c r="AC51">
+        <v>48</v>
+      </c>
+      <c r="AD51">
+        <v>0.10716338630719</v>
+      </c>
+      <c r="AF51" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.335745607189992E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32">
       <c r="B52" s="4">
         <v>49</v>
       </c>
@@ -6537,8 +7184,18 @@
         <f t="shared" si="2"/>
         <v>-2.703311419706371E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:14">
+      <c r="AC52">
+        <v>49</v>
+      </c>
+      <c r="AD52">
+        <v>0.106852146948619</v>
+      </c>
+      <c r="AF52" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.9044813486189952E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32">
       <c r="B53" s="4">
         <v>50</v>
       </c>
@@ -6559,8 +7216,18 @@
         <f t="shared" si="2"/>
         <v>-6.3514039616110449E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:14">
+      <c r="AC53">
+        <v>50</v>
+      </c>
+      <c r="AD53">
+        <v>0.10325279584248501</v>
+      </c>
+      <c r="AF53" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.3522143524850083E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32">
       <c r="B54" s="4">
         <v>51</v>
       </c>
@@ -6581,8 +7248,18 @@
         <f t="shared" si="2"/>
         <v>-8.7798789258190985E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:14">
+      <c r="AC54">
+        <v>51</v>
+      </c>
+      <c r="AD54">
+        <v>9.9334740227112805E-2</v>
+      </c>
+      <c r="AF54" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.422698227112807E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32">
       <c r="B55" s="4">
         <v>52</v>
       </c>
@@ -6603,8 +7280,18 @@
         <f t="shared" si="2"/>
         <v>-0.11438187619786619</v>
       </c>
-    </row>
-    <row r="56" spans="2:14">
+      <c r="AC55">
+        <v>52</v>
+      </c>
+      <c r="AD55">
+        <v>9.5107742222604999E-2</v>
+      </c>
+      <c r="AF55" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.0143309322605001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:32">
       <c r="B56" s="4">
         <v>53</v>
       </c>
@@ -6625,8 +7312,18 @@
         <f t="shared" si="2"/>
         <v>-0.13486830209291875</v>
       </c>
-    </row>
-    <row r="57" spans="2:14">
+      <c r="AC56">
+        <v>53</v>
+      </c>
+      <c r="AD56">
+        <v>9.2351378899464501E-2</v>
+      </c>
+      <c r="AF56" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.1228757099464498E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:32">
       <c r="B57" s="4">
         <v>54</v>
       </c>
@@ -6647,8 +7344,18 @@
         <f t="shared" si="2"/>
         <v>-0.10121856672636538</v>
       </c>
-    </row>
-    <row r="58" spans="2:14">
+      <c r="AC57">
+        <v>54</v>
+      </c>
+      <c r="AD57">
+        <v>8.8525776303888998E-2</v>
+      </c>
+      <c r="AF57" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.4828699638890004E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:32">
       <c r="B58" s="4">
         <v>55</v>
       </c>
@@ -6669,8 +7376,18 @@
         <f t="shared" si="2"/>
         <v>-4.2807409266832346E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:14">
+      <c r="AC58">
+        <v>55</v>
+      </c>
+      <c r="AD58">
+        <v>9.2234807700590005E-2</v>
+      </c>
+      <c r="AF58" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.6515637505900034E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:32">
       <c r="B59" s="4">
         <v>56</v>
       </c>
@@ -6691,8 +7408,18 @@
         <f t="shared" si="2"/>
         <v>1.9518738964984735E-2</v>
       </c>
-    </row>
-    <row r="60" spans="2:14">
+      <c r="AC59">
+        <v>56</v>
+      </c>
+      <c r="AD59">
+        <v>0.107181762062678</v>
+      </c>
+      <c r="AF59" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1108478373220024E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:32">
       <c r="B60" s="4">
         <v>57</v>
       </c>
@@ -6713,8 +7440,18 @@
         <f t="shared" si="2"/>
         <v>2.9977508109116664E-2</v>
       </c>
-    </row>
-    <row r="61" spans="2:14">
+      <c r="AC60">
+        <v>57</v>
+      </c>
+      <c r="AD60">
+        <v>0.114294327921099</v>
+      </c>
+      <c r="AF60" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5866069789009941E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:32">
       <c r="B61" s="4">
         <v>58</v>
       </c>
@@ -6735,8 +7472,18 @@
         <f t="shared" si="2"/>
         <v>3.1194356705501556E-3</v>
       </c>
-    </row>
-    <row r="62" spans="2:14">
+      <c r="AC61">
+        <v>58</v>
+      </c>
+      <c r="AD61">
+        <v>0.10085074005484</v>
+      </c>
+      <c r="AF61" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6002604515999728E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:32">
       <c r="B62" s="4">
         <v>59</v>
       </c>
@@ -6757,8 +7504,18 @@
         <f t="shared" si="2"/>
         <v>-5.2046628103285142E-2</v>
       </c>
-    </row>
-    <row r="63" spans="2:14">
+      <c r="AC62">
+        <v>59</v>
+      </c>
+      <c r="AD62">
+        <v>0.10715821812596001</v>
+      </c>
+      <c r="AF62" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.228844225960011E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:32">
       <c r="B63" s="4">
         <v>60</v>
       </c>
@@ -6779,8 +7536,18 @@
         <f t="shared" si="2"/>
         <v>-4.9438205177400482E-2</v>
       </c>
-    </row>
-    <row r="64" spans="2:14">
+      <c r="AC63">
+        <v>60</v>
+      </c>
+      <c r="AD63">
+        <v>0.10734771810442501</v>
+      </c>
+      <c r="AF63" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.1205403044250059E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:32">
       <c r="B64" s="4">
         <v>61</v>
       </c>
@@ -6801,8 +7568,18 @@
         <f t="shared" si="2"/>
         <v>-3.5953163322158289E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:14">
+      <c r="AC64">
+        <v>61</v>
+      </c>
+      <c r="AD64">
+        <v>0.101967067200712</v>
+      </c>
+      <c r="AF64" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.6000486307119911E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32">
       <c r="B65" s="4">
         <v>62</v>
       </c>
@@ -6823,8 +7600,18 @@
         <f t="shared" si="2"/>
         <v>7.4266088029779388E-3</v>
       </c>
-    </row>
-    <row r="66" spans="2:14">
+      <c r="AC65">
+        <v>62</v>
+      </c>
+      <c r="AD65">
+        <v>9.7707337381741893E-2</v>
+      </c>
+      <c r="AF65" s="1">
+        <f t="shared" si="3"/>
+        <v>2.150924682581129E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32">
       <c r="B66" s="4">
         <v>63</v>
       </c>
@@ -6845,8 +7632,18 @@
         <f t="shared" si="2"/>
         <v>3.1240368914368464E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:14">
+      <c r="AC66">
+        <v>63</v>
+      </c>
+      <c r="AD66">
+        <v>9.3239157586459301E-2</v>
+      </c>
+      <c r="AF66" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7962401435406986E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32">
       <c r="B67" s="4">
         <v>64</v>
       </c>
@@ -6867,8 +7664,18 @@
         <f t="shared" si="2"/>
         <v>4.4659142911507459E-2</v>
       </c>
-    </row>
-    <row r="68" spans="2:14">
+      <c r="AC67">
+        <v>64</v>
+      </c>
+      <c r="AD67">
+        <v>8.8150221801111095E-2</v>
+      </c>
+      <c r="AF67" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7850799588889095E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:32">
       <c r="B68" s="4">
         <v>65</v>
       </c>
@@ -6882,15 +7689,25 @@
         <v>8.2153951186209204E-2</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" ref="M68:M131" si="3">C68-K68</f>
+        <f t="shared" ref="M68:M131" si="4">C68-K68</f>
         <v>4.1230769837908021E-3</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ref="N68:N131" si="4">M68/C68</f>
+        <f t="shared" ref="N68:N131" si="5">M68/C68</f>
         <v>4.778881553113655E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:14">
+      <c r="AC68">
+        <v>65</v>
+      </c>
+      <c r="AD68">
+        <v>8.2443401237492206E-2</v>
+      </c>
+      <c r="AF68" s="1">
+        <f t="shared" ref="AF68:AF131" si="6">C68-AD68</f>
+        <v>3.8336269325077998E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32">
       <c r="B69" s="4">
         <v>66</v>
       </c>
@@ -6904,15 +7721,25 @@
         <v>7.7291915571485403E-2</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2689719085145924E-3</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0577655122358794E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:14">
+      <c r="AC69">
+        <v>66</v>
+      </c>
+      <c r="AD69">
+        <v>7.75565987625077E-2</v>
+      </c>
+      <c r="AF69" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0042887174922955E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32">
       <c r="B70" s="4">
         <v>67</v>
       </c>
@@ -6926,15 +7753,25 @@
         <v>7.6877737953006703E-2</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.573060896993302E-3</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4412994626134801E-2</v>
       </c>
-    </row>
-    <row r="71" spans="2:14">
+      <c r="AC70">
+        <v>67</v>
+      </c>
+      <c r="AD70">
+        <v>7.6783668547310294E-2</v>
+      </c>
+      <c r="AF70" s="1">
+        <f t="shared" si="6"/>
+        <v>3.6671303026897112E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32">
       <c r="B71" s="4">
         <v>68</v>
       </c>
@@ -6948,15 +7785,25 @@
         <v>8.0317460317460301E-2</v>
       </c>
       <c r="M71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7796435025397044E-3</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6166935042228375E-2</v>
       </c>
-    </row>
-    <row r="72" spans="2:14">
+      <c r="AC71">
+        <v>68</v>
+      </c>
+      <c r="AD71">
+        <v>7.9816242445123906E-2</v>
+      </c>
+      <c r="AF71" s="1">
+        <f t="shared" si="6"/>
+        <v>5.2808613748761002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32">
       <c r="B72" s="4">
         <v>69</v>
       </c>
@@ -6970,15 +7817,25 @@
         <v>7.5827501849007203E-2</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2908857709927926E-3</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5224247254247789E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:14">
+      <c r="AC72">
+        <v>69</v>
+      </c>
+      <c r="AD72">
+        <v>7.5613362619693605E-2</v>
+      </c>
+      <c r="AF72" s="1">
+        <f t="shared" si="6"/>
+        <v>5.5050250003063905E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32">
       <c r="B73" s="4">
         <v>70</v>
       </c>
@@ -6992,15 +7849,25 @@
         <v>7.0314615690959703E-2</v>
       </c>
       <c r="M73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2619100290402935E-3</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1773232334107174E-2</v>
       </c>
-    </row>
-    <row r="74" spans="2:14">
+      <c r="AC73">
+        <v>70</v>
+      </c>
+      <c r="AD73">
+        <v>7.0094893549822707E-2</v>
+      </c>
+      <c r="AF73" s="1">
+        <f t="shared" si="6"/>
+        <v>6.48163217017729E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32">
       <c r="B74" s="4">
         <v>71</v>
       </c>
@@ -7014,15 +7881,25 @@
         <v>6.8545258007623594E-2</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1174191223763996E-3</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.1934098233913677E-2</v>
       </c>
-    </row>
-    <row r="75" spans="2:14">
+      <c r="AC74">
+        <v>71</v>
+      </c>
+      <c r="AD74">
+        <v>6.8635743715635106E-2</v>
+      </c>
+      <c r="AF74" s="1">
+        <f t="shared" si="6"/>
+        <v>6.0269334143648878E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32">
       <c r="B75" s="4">
         <v>72</v>
       </c>
@@ -7036,15 +7913,25 @@
         <v>6.7976332707515505E-2</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4986856424844984E-3</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2072224952868855E-2</v>
       </c>
-    </row>
-    <row r="76" spans="2:14">
+      <c r="AC75">
+        <v>72</v>
+      </c>
+      <c r="AD75">
+        <v>6.8024749845672305E-2</v>
+      </c>
+      <c r="AF75" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4502685043276979E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32">
       <c r="B76" s="4">
         <v>73</v>
       </c>
@@ -7058,15 +7945,25 @@
         <v>6.6404961028616899E-2</v>
       </c>
       <c r="M76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1018983413830942E-3</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.4627226283826475E-2</v>
       </c>
-    </row>
-    <row r="77" spans="2:14">
+      <c r="AC76">
+        <v>73</v>
+      </c>
+      <c r="AD76">
+        <v>6.6410554574558106E-2</v>
+      </c>
+      <c r="AF76" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0963047954418871E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32">
       <c r="B77" s="4">
         <v>74</v>
       </c>
@@ -7080,15 +7977,25 @@
         <v>6.1990100699778103E-2</v>
       </c>
       <c r="M77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4534153602218935E-3</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.290880850373055E-2</v>
       </c>
-    </row>
-    <row r="78" spans="2:14">
+      <c r="AC77">
+        <v>74</v>
+      </c>
+      <c r="AD77">
+        <v>6.2161735360408803E-2</v>
+      </c>
+      <c r="AF77" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2817806995911937E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:32">
       <c r="B78" s="4">
         <v>75</v>
       </c>
@@ -7102,15 +8009,25 @@
         <v>5.8404733458496901E-2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5781947150309744E-4</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1137674192355597E-2</v>
       </c>
-    </row>
-    <row r="79" spans="2:14">
+      <c r="AC78">
+        <v>75</v>
+      </c>
+      <c r="AD78">
+        <v>5.86203827325322E-2</v>
+      </c>
+      <c r="AF78" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4217019746779773E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32">
       <c r="B79" s="4">
         <v>76</v>
       </c>
@@ -7124,15 +8041,25 @@
         <v>5.8102065198839301E-2</v>
       </c>
       <c r="M79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.1844299883930097E-4</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.254104074610297E-3</v>
       </c>
-    </row>
-    <row r="80" spans="2:14">
+      <c r="AC79">
+        <v>76</v>
+      </c>
+      <c r="AD79">
+        <v>5.8404467605552901E-2</v>
+      </c>
+      <c r="AF79" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.208454055529015E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:32">
       <c r="B80" s="4">
         <v>77</v>
       </c>
@@ -7146,15 +8073,25 @@
         <v>5.8237469420265101E-2</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.1374299002651018E-3</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.8100327888416108E-2</v>
       </c>
-    </row>
-    <row r="81" spans="2:21">
+      <c r="AC80">
+        <v>77</v>
+      </c>
+      <c r="AD80">
+        <v>5.8249422168626198E-2</v>
+      </c>
+      <c r="AF80" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.1493826486261997E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:32">
       <c r="B81" s="4">
         <v>78</v>
       </c>
@@ -7168,15 +8105,25 @@
         <v>6.5408203902827505E-2</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.1558468728275034E-3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.5570874352025386E-2</v>
       </c>
-    </row>
-    <row r="82" spans="2:21">
+      <c r="AC81">
+        <v>78</v>
+      </c>
+      <c r="AD81">
+        <v>6.5648534964181604E-2</v>
+      </c>
+      <c r="AF81" s="1">
+        <f t="shared" si="6"/>
+        <v>-5.3961779341816021E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:32">
       <c r="B82" s="4">
         <v>79</v>
       </c>
@@ -7190,15 +8137,25 @@
         <v>7.8105478750640001E-2</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.3255995706399939E-3</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.3174064461809032E-2</v>
       </c>
-    </row>
-    <row r="83" spans="2:21">
+      <c r="AC82">
+        <v>79</v>
+      </c>
+      <c r="AD82">
+        <v>7.8576453192069698E-2</v>
+      </c>
+      <c r="AF82" s="1">
+        <f t="shared" si="6"/>
+        <v>-5.7965740120696913E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:32">
       <c r="B83" s="4">
         <v>80</v>
       </c>
@@ -7212,15 +8169,25 @@
         <v>9.0461398418387601E-2</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.4024021983875986E-3</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.3513589843155555E-2</v>
       </c>
-    </row>
-    <row r="84" spans="2:21">
+      <c r="AC83">
+        <v>80</v>
+      </c>
+      <c r="AD83">
+        <v>9.10622048035373E-2</v>
+      </c>
+      <c r="AF83" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.0032085835372978E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:32">
       <c r="B84" s="4">
         <v>81</v>
       </c>
@@ -7234,15 +8201,25 @@
         <v>8.7581498549240397E-2</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.6219208392404019E-3</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.8593823886362759E-2</v>
       </c>
-    </row>
-    <row r="85" spans="2:21">
+      <c r="AC84">
+        <v>81</v>
+      </c>
+      <c r="AD84">
+        <v>8.8482133884606004E-2</v>
+      </c>
+      <c r="AF84" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.522556174606009E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:32">
       <c r="B85" s="4">
         <v>82</v>
       </c>
@@ -7256,15 +8233,25 @@
         <v>8.0421004722079997E-2</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.5304723420799952E-3</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.2487547135186173E-2</v>
       </c>
-    </row>
-    <row r="86" spans="2:21">
+      <c r="AC85">
+        <v>82</v>
+      </c>
+      <c r="AD85">
+        <v>8.1123792296538697E-2</v>
+      </c>
+      <c r="AF85" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.2332599165386944E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:32">
       <c r="B86" s="4">
         <v>83</v>
       </c>
@@ -7278,15 +8265,25 @@
         <v>7.4333504010923299E-2</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3425531190767032E-3</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7740791077029822E-2</v>
       </c>
-    </row>
-    <row r="87" spans="2:21">
+      <c r="AC86">
+        <v>83</v>
+      </c>
+      <c r="AD86">
+        <v>7.4642893033004504E-2</v>
+      </c>
+      <c r="AF86" s="1">
+        <f t="shared" si="6"/>
+        <v>1.033164096995498E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:32">
       <c r="B87" s="4">
         <v>84</v>
       </c>
@@ -7300,15 +8297,25 @@
         <v>6.8854753370882399E-2</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1877013191176076E-3</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0794281090987558E-2</v>
       </c>
-    </row>
-    <row r="88" spans="2:21">
+      <c r="AC87">
+        <v>84</v>
+      </c>
+      <c r="AD87">
+        <v>6.8713840676457499E-2</v>
+      </c>
+      <c r="AF87" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3286140135425071E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:32">
       <c r="B88" s="4">
         <v>85</v>
       </c>
@@ -7322,15 +8329,25 @@
         <v>6.2842350799340002E-2</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.4380647106599938E-3</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1871502075017603E-2</v>
       </c>
-    </row>
-    <row r="89" spans="2:21">
+      <c r="AC88">
+        <v>85</v>
+      </c>
+      <c r="AD88">
+        <v>6.3007020112838596E-2</v>
+      </c>
+      <c r="AF88" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2733953971613994E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:32">
       <c r="B89" s="4">
         <v>86</v>
       </c>
@@ -7344,15 +8361,25 @@
         <v>5.2325197701541697E-2</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.072645688458304E-3</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2212791193012743E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:21">
+      <c r="AC89">
+        <v>86</v>
+      </c>
+      <c r="AD89">
+        <v>5.2620698565829703E-2</v>
+      </c>
+      <c r="AF89" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7771448241702976E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:32">
       <c r="B90" s="4">
         <v>87</v>
       </c>
@@ -7369,15 +8396,25 @@
         <v>4.44512715480457E-2</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2312215319542995E-3</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7765364670279937E-2</v>
       </c>
-    </row>
-    <row r="91" spans="2:21">
+      <c r="AC90">
+        <v>87</v>
+      </c>
+      <c r="AD90">
+        <v>4.4604275234362598E-2</v>
+      </c>
+      <c r="AF90" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0782178456374015E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:32">
       <c r="B91" s="4">
         <v>88</v>
       </c>
@@ -7394,18 +8431,28 @@
         <v>4.1138988450816399E-2</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0058768991835993E-3</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.6491671324305088E-2</v>
       </c>
       <c r="P91" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="2:21">
+      <c r="AC91">
+        <v>88</v>
+      </c>
+      <c r="AD91">
+        <v>4.1112881691717902E-2</v>
+      </c>
+      <c r="AF91" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0319836582820966E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:32">
       <c r="B92" s="4">
         <v>89</v>
       </c>
@@ -7419,18 +8466,28 @@
         <v>3.9261534960459601E-2</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2595512495403999E-3</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1083847136100743E-2</v>
       </c>
       <c r="P92">
         <v>126.33292532</v>
       </c>
-    </row>
-    <row r="93" spans="2:21">
+      <c r="AC92">
+        <v>89</v>
+      </c>
+      <c r="AD92">
+        <v>3.9357997042651797E-2</v>
+      </c>
+      <c r="AF92" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1630891673482038E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:32">
       <c r="B93" s="4">
         <v>90</v>
       </c>
@@ -7444,15 +8501,25 @@
         <v>3.84889344029129E-2</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3205018708709787E-4</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6156295494890505E-2</v>
       </c>
-    </row>
-    <row r="94" spans="2:21">
+      <c r="AC93">
+        <v>90</v>
+      </c>
+      <c r="AD93">
+        <v>3.85259198644788E-2</v>
+      </c>
+      <c r="AF93" s="1">
+        <f t="shared" si="6"/>
+        <v>5.9506472552119799E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:32">
       <c r="B94" s="4">
         <v>91</v>
       </c>
@@ -7466,15 +8533,25 @@
         <v>3.7868805825795E-2</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5497982579500136E-4</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.1093636533986594E-3</v>
       </c>
-    </row>
-    <row r="95" spans="2:21">
+      <c r="AC94">
+        <v>91</v>
+      </c>
+      <c r="AD94">
+        <v>3.7825344186513898E-2</v>
+      </c>
+      <c r="AF94" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.115181865138995E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="2:32">
       <c r="B95" s="4">
         <v>92</v>
       </c>
@@ -7488,15 +8565,25 @@
         <v>3.4916083518233998E-2</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.6158117823399837E-4</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.9313699894610653E-2</v>
       </c>
-    </row>
-    <row r="96" spans="2:21">
+      <c r="AC95">
+        <v>92</v>
+      </c>
+      <c r="AD95">
+        <v>3.4859956644701803E-2</v>
+      </c>
+      <c r="AF95" s="1">
+        <f t="shared" si="6"/>
+        <v>-6.0545430470180378E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32">
       <c r="B96" s="4">
         <v>93</v>
       </c>
@@ -7510,11 +8597,11 @@
         <v>3.6229163110883499E-2</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.5824909088350054E-4</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.4264261036574156E-2</v>
       </c>
       <c r="Q96" t="s">
@@ -7529,8 +8616,18 @@
       <c r="U96" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="2:14">
+      <c r="AC96">
+        <v>93</v>
+      </c>
+      <c r="AD96">
+        <v>3.6215168611912603E-2</v>
+      </c>
+      <c r="AF96" s="1">
+        <f t="shared" si="6"/>
+        <v>-8.4425459191260488E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32">
       <c r="B97" s="4">
         <v>94</v>
       </c>
@@ -7544,15 +8641,25 @@
         <v>3.8777948455367799E-2</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.4776158536779954E-4</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6988156590374445E-2</v>
       </c>
-    </row>
-    <row r="98" spans="2:14">
+      <c r="AC97">
+        <v>94</v>
+      </c>
+      <c r="AD97">
+        <v>3.8927315273411103E-2</v>
+      </c>
+      <c r="AF97" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.9712840341110425E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32">
       <c r="B98" s="4">
         <v>95</v>
       </c>
@@ -7566,15 +8673,25 @@
         <v>4.5905444615121999E-2</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.6455789751219987E-3</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.7179936073615222E-2</v>
       </c>
-    </row>
-    <row r="99" spans="2:14">
+      <c r="AC98">
+        <v>95</v>
+      </c>
+      <c r="AD98">
+        <v>4.6195500811117299E-2</v>
+      </c>
+      <c r="AF98" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.9356351711172989E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32">
       <c r="B99" s="4">
         <v>96</v>
       </c>
@@ -7588,15 +8705,25 @@
         <v>4.8020708880923899E-2</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.9140075909238963E-3</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.4602542584286063E-2</v>
       </c>
-    </row>
-    <row r="100" spans="2:14">
+      <c r="AC99">
+        <v>96</v>
+      </c>
+      <c r="AD99">
+        <v>4.8367285412808401E-2</v>
+      </c>
+      <c r="AF99" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.2605841228083993E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32">
       <c r="B100" s="4">
         <v>97</v>
       </c>
@@ -7610,15 +8737,25 @@
         <v>4.7746486886271797E-2</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3109310762717966E-3</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.0861732294758884E-2</v>
       </c>
-    </row>
-    <row r="101" spans="2:14">
+      <c r="AC100">
+        <v>97</v>
+      </c>
+      <c r="AD100">
+        <v>4.8169746041316699E-2</v>
+      </c>
+      <c r="AF100" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.7341902313166994E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32">
       <c r="B101" s="4">
         <v>98</v>
       </c>
@@ -7632,15 +8769,25 @@
         <v>4.7053535870740099E-2</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.613011960740097E-3</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.8797955803399457E-2</v>
       </c>
-    </row>
-    <row r="102" spans="2:14">
+      <c r="AC101">
+        <v>98</v>
+      </c>
+      <c r="AD101">
+        <v>4.7480655210531603E-2</v>
+      </c>
+      <c r="AF101" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.0401313005316011E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32">
       <c r="B102" s="4">
         <v>99</v>
       </c>
@@ -7654,15 +8801,25 @@
         <v>4.1127609944814202E-2</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.1399737448142007E-3</v>
       </c>
       <c r="N102" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.2657781818343323E-2</v>
       </c>
-    </row>
-    <row r="103" spans="2:14">
+      <c r="AC102">
+        <v>99</v>
+      </c>
+      <c r="AD102">
+        <v>4.1481545286187999E-2</v>
+      </c>
+      <c r="AF102" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.4939090861879976E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32">
       <c r="B103" s="4">
         <v>100</v>
       </c>
@@ -7676,15 +8833,25 @@
         <v>3.6758263639984003E-2</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.4465716599840004E-3</v>
       </c>
       <c r="N103" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.10346432303868824</v>
       </c>
-    </row>
-    <row r="104" spans="2:14">
+      <c r="AC103">
+        <v>100</v>
+      </c>
+      <c r="AD103">
+        <v>3.7009920036751499E-2</v>
+      </c>
+      <c r="AF103" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.6982280567514972E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32">
       <c r="B104" s="4">
         <v>101</v>
       </c>
@@ -7698,15 +8865,25 @@
         <v>2.95602207430164E-2</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.2956128230164014E-3</v>
       </c>
       <c r="N104" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.12547732800941053</v>
       </c>
-    </row>
-    <row r="105" spans="2:14">
+      <c r="AC104">
+        <v>101</v>
+      </c>
+      <c r="AD104">
+        <v>2.9882423876997199E-2</v>
+      </c>
+      <c r="AF104" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.6178159569972002E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32">
       <c r="B105" s="4">
         <v>102</v>
       </c>
@@ -7720,15 +8897,25 @@
         <v>2.4137224782385999E-2</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.4949281623859974E-3</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.11528019443557545</v>
       </c>
-    </row>
-    <row r="106" spans="2:14">
+      <c r="AC105">
+        <v>102</v>
+      </c>
+      <c r="AD105">
+        <v>2.4235324518713099E-2</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.5930278987130982E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32">
       <c r="B106" s="4">
         <v>103</v>
       </c>
@@ -7742,15 +8929,25 @@
         <v>2.3110883540991001E-2</v>
       </c>
       <c r="M106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.0119731409910004E-3</v>
       </c>
       <c r="N106" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.5359101624081982E-2</v>
       </c>
-    </row>
-    <row r="107" spans="2:14">
+      <c r="AC106">
+        <v>103</v>
+      </c>
+      <c r="AD106">
+        <v>2.3187906455919699E-2</v>
+      </c>
+      <c r="AF106" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.0889960559196986E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32">
       <c r="B107" s="4">
         <v>104</v>
       </c>
@@ -7764,15 +8961,25 @@
         <v>2.2493030665073601E-2</v>
       </c>
       <c r="M107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.5634873950736011E-3</v>
       </c>
       <c r="N107" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.4702413469035112E-2</v>
       </c>
-    </row>
-    <row r="108" spans="2:14">
+      <c r="AC107">
+        <v>104</v>
+      </c>
+      <c r="AD107">
+        <v>2.2576912585956899E-2</v>
+      </c>
+      <c r="AF107" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.6473693159568988E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32">
       <c r="B108" s="4">
         <v>105</v>
       </c>
@@ -7786,15 +8993,25 @@
         <v>2.2106161461000098E-2</v>
       </c>
       <c r="M108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.1921435110000995E-3</v>
       </c>
       <c r="N108" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.7002127178536713E-2</v>
       </c>
-    </row>
-    <row r="109" spans="2:14">
+      <c r="AC108">
+        <v>105</v>
+      </c>
+      <c r="AD108">
+        <v>2.21565671791779E-2</v>
+      </c>
+      <c r="AF108" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.2425492291779014E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32">
       <c r="B109" s="4">
         <v>106</v>
       </c>
@@ -7808,15 +9025,25 @@
         <v>2.1863799283154101E-2</v>
       </c>
       <c r="M109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.2840155315410183E-4</v>
       </c>
       <c r="N109" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.9381311624674564E-2</v>
       </c>
-    </row>
-    <row r="110" spans="2:14">
+      <c r="AC109">
+        <v>106</v>
+      </c>
+      <c r="AD109">
+        <v>2.1789626311784799E-2</v>
+      </c>
+      <c r="AF109" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.5422858178480004E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32">
       <c r="B110" s="4">
         <v>107</v>
       </c>
@@ -7830,15 +9057,25 @@
         <v>2.1193605279626701E-2</v>
       </c>
       <c r="M110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.3604303962670237E-4</v>
       </c>
       <c r="N110" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6111328627956781E-2</v>
       </c>
-    </row>
-    <row r="111" spans="2:14">
+      <c r="AC110">
+        <v>107</v>
+      </c>
+      <c r="AD110">
+        <v>2.10838824525891E-2</v>
+      </c>
+      <c r="AF110" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.2632021258910118E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32">
       <c r="B111" s="4">
         <v>108</v>
       </c>
@@ -7852,15 +9089,25 @@
         <v>2.2645502645502601E-2</v>
       </c>
       <c r="M111" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.3819705502599033E-5</v>
       </c>
       <c r="N111" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.1063534423123336E-4</v>
       </c>
-    </row>
-    <row r="112" spans="2:14">
+      <c r="AC111">
+        <v>108</v>
+      </c>
+      <c r="AD111">
+        <v>2.24718262342621E-2</v>
+      </c>
+      <c r="AF111" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5985670573790203E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32">
       <c r="B112" s="4">
         <v>109</v>
       </c>
@@ -7874,15 +9121,25 @@
         <v>2.4874551971326101E-2</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5832783867389972E-4</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4200830082497813E-2</v>
       </c>
-    </row>
-    <row r="113" spans="2:14">
+      <c r="AC112">
+        <v>109</v>
+      </c>
+      <c r="AD112">
+        <v>2.45982456895932E-2</v>
+      </c>
+      <c r="AF112" s="1">
+        <f t="shared" si="6"/>
+        <v>6.3463412040680109E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32">
       <c r="B113" s="4">
         <v>110</v>
       </c>
@@ -7896,15 +9153,25 @@
         <v>2.8967400580303799E-2</v>
       </c>
       <c r="M113" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1616007196962007E-3</v>
       </c>
       <c r="N113" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8554239091097939E-2</v>
       </c>
-    </row>
-    <row r="114" spans="2:14">
+      <c r="AC113">
+        <v>110</v>
+      </c>
+      <c r="AD113">
+        <v>2.8469787673887699E-2</v>
+      </c>
+      <c r="AF113" s="1">
+        <f t="shared" si="6"/>
+        <v>1.6592136261123006E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:32">
       <c r="B114" s="4">
         <v>111</v>
       </c>
@@ -7918,15 +9185,25 @@
         <v>3.06081811458155E-2</v>
       </c>
       <c r="M114" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3570421341845031E-3</v>
       </c>
       <c r="N114" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.2453704211525937E-2</v>
       </c>
-    </row>
-    <row r="115" spans="2:14">
+      <c r="AC114">
+        <v>111</v>
+      </c>
+      <c r="AD114">
+        <v>3.0256829895057201E-2</v>
+      </c>
+      <c r="AF114" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7083933849428024E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:32">
       <c r="B115" s="4">
         <v>112</v>
       </c>
@@ -7940,15 +9217,25 @@
         <v>3.1429709279171603E-2</v>
       </c>
       <c r="M115" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2920205208283991E-3</v>
       </c>
       <c r="N115" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9485092283489211E-2</v>
       </c>
-    </row>
-    <row r="116" spans="2:14">
+      <c r="AC115">
+        <v>112</v>
+      </c>
+      <c r="AD115">
+        <v>3.11865282742581E-2</v>
+      </c>
+      <c r="AF115" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5352015257419013E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:32">
       <c r="B116" s="4">
         <v>113</v>
       </c>
@@ -7962,15 +9249,25 @@
         <v>3.2058940661091197E-2</v>
       </c>
       <c r="M116" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2838019589088007E-3</v>
       </c>
       <c r="N116" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.8503190140655584E-2</v>
       </c>
-    </row>
-    <row r="117" spans="2:14">
+      <c r="AC116">
+        <v>113</v>
+      </c>
+      <c r="AD116">
+        <v>3.1933617583301002E-2</v>
+      </c>
+      <c r="AF116" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4091250366989952E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:32">
       <c r="B117" s="4">
         <v>114</v>
       </c>
@@ -7984,15 +9281,25 @@
         <v>2.9387267451783501E-2</v>
       </c>
       <c r="M117" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9254398821649794E-4</v>
       </c>
       <c r="N117" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.6260733596435552E-2</v>
       </c>
-    </row>
-    <row r="118" spans="2:14">
+      <c r="AC117">
+        <v>114</v>
+      </c>
+      <c r="AD117">
+        <v>2.96848845055055E-2</v>
+      </c>
+      <c r="AF117" s="1">
+        <f t="shared" si="6"/>
+        <v>4.9492693449449884E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="2:32">
       <c r="B118" s="4">
         <v>115</v>
       </c>
@@ -8006,15 +9313,25 @@
         <v>2.8587358479831598E-2</v>
       </c>
       <c r="M118" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9297800016840157E-4</v>
       </c>
       <c r="N118" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6952279782163016E-2</v>
       </c>
-    </row>
-    <row r="119" spans="2:14">
+      <c r="AC118">
+        <v>115</v>
+      </c>
+      <c r="AD118">
+        <v>2.8833857329485901E-2</v>
+      </c>
+      <c r="AF118" s="1">
+        <f t="shared" si="6"/>
+        <v>2.4647915051409855E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="2:32">
       <c r="B119" s="4">
         <v>116</v>
       </c>
@@ -8028,15 +9345,25 @@
         <v>2.8556636513625701E-2</v>
       </c>
       <c r="M119" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.541239463743003E-4</v>
       </c>
       <c r="N119" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.8204525780261299E-3</v>
       </c>
-    </row>
-    <row r="120" spans="2:14">
+      <c r="AC119">
+        <v>116</v>
+      </c>
+      <c r="AD119">
+        <v>2.8975695192155801E-2</v>
+      </c>
+      <c r="AF119" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.6493473215579979E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32">
       <c r="B120" s="4">
         <v>117</v>
       </c>
@@ -8050,15 +9377,25 @@
         <v>3.0088183421516701E-2</v>
       </c>
       <c r="M120" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0697628483298979E-5</v>
       </c>
       <c r="N120" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6821337328082051E-3</v>
       </c>
-    </row>
-    <row r="121" spans="2:14">
+      <c r="AC120">
+        <v>117</v>
+      </c>
+      <c r="AD120">
+        <v>3.0297026860186298E-2</v>
+      </c>
+      <c r="AF120" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.5814581018629842E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="2:32">
       <c r="B121" s="4">
         <v>118</v>
       </c>
@@ -8072,15 +9409,25 @@
         <v>3.2573249132388897E-2</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.543929223888952E-4</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7314576097060875E-2</v>
       </c>
-    </row>
-    <row r="122" spans="2:14">
+      <c r="AC121">
+        <v>118</v>
+      </c>
+      <c r="AD121">
+        <v>3.3014915945274698E-2</v>
+      </c>
+      <c r="AF121" s="1">
+        <f t="shared" si="6"/>
+        <v>-9.9605973527469582E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="2:32">
       <c r="B122" s="4">
         <v>119</v>
       </c>
@@ -8094,15 +9441,25 @@
         <v>3.5743300904591199E-2</v>
       </c>
       <c r="M122" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4704504545911962E-3</v>
       </c>
       <c r="N122" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.2904235722570197E-2</v>
       </c>
-    </row>
-    <row r="123" spans="2:14">
+      <c r="AC122">
+        <v>119</v>
+      </c>
+      <c r="AD122">
+        <v>3.6288097391504001E-2</v>
+      </c>
+      <c r="AF122" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.0152469415039981E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:32">
       <c r="B123" s="4">
         <v>120</v>
       </c>
@@ -8116,15 +9473,25 @@
         <v>3.2316094896739998E-2</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.8935239067399967E-3</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.2240758920815868E-2</v>
       </c>
-    </row>
-    <row r="124" spans="2:14">
+      <c r="AC123">
+        <v>120</v>
+      </c>
+      <c r="AD123">
+        <v>3.2682429619420798E-2</v>
+      </c>
+      <c r="AF123" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.2598586294207967E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:32">
       <c r="B124" s="4">
         <v>121</v>
       </c>
@@ -8138,15 +9505,25 @@
         <v>2.88126528986744E-2</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.2311413867439875E-4</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.5743183070849354E-2</v>
       </c>
-    </row>
-    <row r="125" spans="2:14">
+      <c r="AC124">
+        <v>121</v>
+      </c>
+      <c r="AD124">
+        <v>2.9096286087543201E-2</v>
+      </c>
+      <c r="AF124" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.0067473275431997E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:32">
       <c r="B125" s="4">
         <v>122</v>
       </c>
@@ -8160,15 +9537,25 @@
         <v>2.7158218125960001E-2</v>
       </c>
       <c r="M125" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3307839596000204E-4</v>
       </c>
       <c r="N125" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.656534313183379E-3</v>
       </c>
-    </row>
-    <row r="126" spans="2:14">
+      <c r="AC125">
+        <v>122</v>
+      </c>
+      <c r="AD125">
+        <v>2.73523120432978E-2</v>
+      </c>
+      <c r="AF125" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.2717231329780087E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="2:32">
       <c r="B126" s="4">
         <v>123</v>
       </c>
@@ -8182,15 +9569,25 @@
         <v>2.5751834784092799E-2</v>
       </c>
       <c r="M126" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6133633590720287E-4</v>
       </c>
       <c r="N126" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.2260359861044615E-3</v>
       </c>
-    </row>
-    <row r="127" spans="2:14">
+      <c r="AC126">
+        <v>123</v>
+      </c>
+      <c r="AD126">
+        <v>2.60539500696268E-2</v>
+      </c>
+      <c r="AF126" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.4077894962679846E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="2:32">
       <c r="B127" s="4">
         <v>124</v>
       </c>
@@ -8204,15 +9601,25 @@
         <v>2.47812482221084E-2</v>
       </c>
       <c r="M127" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4034043789159885E-4</v>
       </c>
       <c r="N127" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7458870011227867E-2</v>
       </c>
-    </row>
-    <row r="128" spans="2:14">
+      <c r="AC127">
+        <v>124</v>
+      </c>
+      <c r="AD127">
+        <v>2.5015719884577198E-2</v>
+      </c>
+      <c r="AF127" s="1">
+        <f t="shared" si="6"/>
+        <v>2.058687754228003E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="2:32">
       <c r="B128" s="4">
         <v>125</v>
       </c>
@@ -8226,15 +9633,25 @@
         <v>2.3891449052739301E-2</v>
       </c>
       <c r="M128" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.9783565726069807E-4</v>
       </c>
       <c r="N128" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8379664780444038E-2</v>
       </c>
-    </row>
-    <row r="129" spans="2:14">
+      <c r="AC128">
+        <v>125</v>
+      </c>
+      <c r="AD128">
+        <v>2.4018835149374699E-2</v>
+      </c>
+      <c r="AF128" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7044956062530031E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:32">
       <c r="B129" s="4">
         <v>126</v>
       </c>
@@ -8248,15 +9665,25 @@
         <v>2.3336177959833799E-2</v>
       </c>
       <c r="M129" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7506237016620201E-4</v>
       </c>
       <c r="N129" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0107471150411765E-2</v>
       </c>
-    </row>
-    <row r="130" spans="2:14">
+      <c r="AC129">
+        <v>126</v>
+      </c>
+      <c r="AD129">
+        <v>2.3695536701264699E-2</v>
+      </c>
+      <c r="AF129" s="1">
+        <f t="shared" si="6"/>
+        <v>6.157036287353021E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32">
       <c r="B130" s="4">
         <v>127</v>
       </c>
@@ -8270,15 +9697,25 @@
         <v>2.2444103089264301E-2</v>
       </c>
       <c r="M130" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1261560407356992E-3</v>
       </c>
       <c r="N130" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.77786873077835E-2</v>
       </c>
-    </row>
-    <row r="131" spans="2:14">
+      <c r="AC130">
+        <v>127</v>
+      </c>
+      <c r="AD130">
+        <v>2.2618258035804001E-2</v>
+      </c>
+      <c r="AF130" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5200109419599915E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32">
       <c r="B131" s="4">
         <v>128</v>
       </c>
@@ -8292,15 +9729,25 @@
         <v>2.2190362405416102E-2</v>
       </c>
       <c r="M131" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3841309045838981E-3</v>
       </c>
       <c r="N131" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.8713071215692574E-2</v>
       </c>
-    </row>
-    <row r="132" spans="2:14">
+      <c r="AC131">
+        <v>128</v>
+      </c>
+      <c r="AD131">
+        <v>2.2346641400002799E-2</v>
+      </c>
+      <c r="AF131" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2278519099972011E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32">
       <c r="B132" s="4">
         <v>129</v>
       </c>
@@ -8314,15 +9761,25 @@
         <v>2.1602093645104299E-2</v>
       </c>
       <c r="M132" s="1">
-        <f t="shared" ref="M132:M139" si="5">C132-K132</f>
+        <f t="shared" ref="M132:M139" si="7">C132-K132</f>
         <v>1.5602729748957003E-3</v>
       </c>
       <c r="N132" s="1">
-        <f t="shared" ref="N132:N139" si="6">M132/C132</f>
+        <f t="shared" ref="N132:N139" si="8">M132/C132</f>
         <v>6.7362415960917049E-2</v>
       </c>
-    </row>
-    <row r="133" spans="2:14">
+      <c r="AC132">
+        <v>129</v>
+      </c>
+      <c r="AD132">
+        <v>2.17660823750663E-2</v>
+      </c>
+      <c r="AF132" s="1">
+        <f t="shared" ref="AF132:AF160" si="9">C132-AD132</f>
+        <v>1.3962842449336994E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:32">
       <c r="B133" s="4">
         <v>130</v>
       </c>
@@ -8336,15 +9793,25 @@
         <v>2.11185071400125E-2</v>
       </c>
       <c r="M133" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7375872499875017E-3</v>
       </c>
       <c r="N133" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6022929391984434E-2</v>
       </c>
-    </row>
-    <row r="134" spans="2:14">
+      <c r="AC133">
+        <v>130</v>
+      </c>
+      <c r="AD133">
+        <v>2.1291758186542602E-2</v>
+      </c>
+      <c r="AF133" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5643362034573997E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:32">
       <c r="B134" s="4">
         <v>131</v>
       </c>
@@ -8358,15 +9825,25 @@
         <v>2.0806736075553198E-2</v>
       </c>
       <c r="M134" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.957617784446801E-3</v>
       </c>
       <c r="N134" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.599487586979554E-2</v>
       </c>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="AC134">
+        <v>131</v>
+      </c>
+      <c r="AD134">
+        <v>2.09988945834589E-2</v>
+      </c>
+      <c r="AF134" s="1">
+        <f t="shared" si="9"/>
+        <v>1.7654592765410995E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:32">
       <c r="B135" s="4">
         <v>132</v>
       </c>
@@ -8380,15 +9857,25 @@
         <v>2.0394834158275001E-2</v>
       </c>
       <c r="M135" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1126462217249987E-3</v>
       </c>
       <c r="N135" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.3864181421314599E-2</v>
       </c>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="AC135">
+        <v>132</v>
+      </c>
+      <c r="AD135">
+        <v>2.05808461461159E-2</v>
+      </c>
+      <c r="AF135" s="1">
+        <f t="shared" si="9"/>
+        <v>1.9266342338840996E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:32">
       <c r="B136" s="4">
         <v>133</v>
       </c>
@@ -8402,15 +9889,25 @@
         <v>2.0073960289013999E-2</v>
       </c>
       <c r="M136" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2599187809860012E-3</v>
       </c>
       <c r="N136" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10118792055347156</v>
       </c>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="AC136">
+        <v>133</v>
+      </c>
+      <c r="AD136">
+        <v>2.0224241641184599E-2</v>
+      </c>
+      <c r="AF136" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1096374288154009E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="2:32">
       <c r="B137" s="4">
         <v>134</v>
       </c>
@@ -8424,15 +9921,25 @@
         <v>1.8325083916481699E-2</v>
       </c>
       <c r="M137" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9439275435183014E-3</v>
       </c>
       <c r="N137" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.5906381391838311E-2</v>
       </c>
-    </row>
-    <row r="138" spans="2:14">
+      <c r="AC137">
+        <v>134</v>
+      </c>
+      <c r="AD137">
+        <v>1.84538524484258E-2</v>
+      </c>
+      <c r="AF137" s="1">
+        <f t="shared" si="9"/>
+        <v>1.8151590115742001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:32">
       <c r="B138" s="4">
         <v>135</v>
       </c>
@@ -8446,15 +9953,25 @@
         <v>1.1608351823405499E-2</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9151832659450126E-4</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0621785234158173E-2</v>
       </c>
-    </row>
-    <row r="139" spans="2:14">
+      <c r="AC138">
+        <v>135</v>
+      </c>
+      <c r="AD138">
+        <v>1.1794363811246499E-2</v>
+      </c>
+      <c r="AF138" s="1">
+        <f t="shared" si="9"/>
+        <v>3.0550633875350147E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="2:32">
       <c r="B139" s="4">
         <v>136</v>
       </c>
@@ -8468,15 +9985,25 @@
         <v>4.7402856005006504E-3</v>
       </c>
       <c r="M139" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.8634781450065077E-4</v>
       </c>
       <c r="N139" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-0.11432884987205377</v>
       </c>
-    </row>
-    <row r="140" spans="2:14">
+      <c r="AC139">
+        <v>136</v>
+      </c>
+      <c r="AD139">
+        <v>4.8178933919060503E-3</v>
+      </c>
+      <c r="AF139" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.6395560590605069E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="2:32">
       <c r="B140" s="4">
         <v>137</v>
       </c>
@@ -8489,8 +10016,18 @@
       <c r="K140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:14">
+      <c r="AC140">
+        <v>137</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AF140" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:32">
       <c r="B141" s="4">
         <v>138</v>
       </c>
@@ -8503,8 +10040,18 @@
       <c r="K141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:14">
+      <c r="AC141">
+        <v>138</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AF141" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:32">
       <c r="B142" s="4">
         <v>139</v>
       </c>
@@ -8517,8 +10064,18 @@
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:14">
+      <c r="AC142">
+        <v>139</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:32">
       <c r="B143" s="4">
         <v>140</v>
       </c>
@@ -8531,8 +10088,18 @@
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:14">
+      <c r="AC143">
+        <v>140</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AF143" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:32">
       <c r="B144" s="4">
         <v>141</v>
       </c>
@@ -8545,8 +10112,18 @@
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:11">
+      <c r="AC144">
+        <v>141</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:32">
       <c r="B145" s="4">
         <v>142</v>
       </c>
@@ -8559,8 +10136,18 @@
       <c r="K145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:11">
+      <c r="AC145">
+        <v>142</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AF145" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:32">
       <c r="B146" s="4">
         <v>143</v>
       </c>
@@ -8573,8 +10160,18 @@
       <c r="K146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:11">
+      <c r="AC146">
+        <v>143</v>
+      </c>
+      <c r="AD146">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:32">
       <c r="B147" s="4">
         <v>144</v>
       </c>
@@ -8587,8 +10184,18 @@
       <c r="K147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:11">
+      <c r="AC147">
+        <v>144</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:32">
       <c r="B148" s="4">
         <v>145</v>
       </c>
@@ -8601,8 +10208,18 @@
       <c r="K148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:11">
+      <c r="AC148">
+        <v>145</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:32">
       <c r="B149" s="4">
         <v>146</v>
       </c>
@@ -8615,8 +10232,18 @@
       <c r="K149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:11">
+      <c r="AC149">
+        <v>146</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:32">
       <c r="B150" s="4">
         <v>147</v>
       </c>
@@ -8629,8 +10256,18 @@
       <c r="K150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:11">
+      <c r="AC150">
+        <v>147</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AF150" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:32">
       <c r="B151" s="4">
         <v>148</v>
       </c>
@@ -8643,8 +10280,18 @@
       <c r="K151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:11">
+      <c r="AC151">
+        <v>148</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AF151" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:32">
       <c r="B152" s="4">
         <v>149</v>
       </c>
@@ -8655,6 +10302,64 @@
         <v>149</v>
       </c>
       <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="AC152">
+        <v>149</v>
+      </c>
+      <c r="AD152">
+        <v>0</v>
+      </c>
+      <c r="AF152" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:32">
+      <c r="AF153" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:32">
+      <c r="AF154" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:32">
+      <c r="AF155" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:32">
+      <c r="AF156" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:32">
+      <c r="AF157" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:32">
+      <c r="AF158" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:32">
+      <c r="AF159" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:32">
+      <c r="AF160" s="1">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -8669,8 +10374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q92" sqref="Q92"/>
+    <sheetView topLeftCell="B86" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8679,6 +10384,7 @@
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
